--- a/botWhatsapp/enviados.xlsx
+++ b/botWhatsapp/enviados.xlsx
@@ -1,50 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Planilha1"/>
+    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>+55 47 9662-4664</t>
-  </si>
-  <si>
-    <t>+55 47 9734-8584</t>
-  </si>
-  <si>
-    <t>+55 34 9197-3964</t>
-  </si>
-  <si>
-    <t>+55 47 99924-8948</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -63,24 +46,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -368,37 +413,1868 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A264"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>+55 47 9662-4664</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>+55 47 9734-8584</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>+55 34 9197-3964</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>+55 47 99924-8948</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 99457-3760</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>+55 49 8852-0246</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>+1 (954) 651-3083</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>+49 176 62417362</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 91043-9383</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 91219-7323</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 91944-7460</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 93393-5108</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 93761-8868</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 94006-1288</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 94151-4948</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 94159-9637</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 94182-2428</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 94543-9252</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 94564-2517</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 94577-8223</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 94630-0082</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 94995-1852</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 95069-2463</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 95216-3955</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 95249-6993</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 95636-2136</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 96061-9886</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="18.75" customHeight="1">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 96468-2206</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="18.75" customHeight="1">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 96678-2500</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="18.75" customHeight="1">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 96900-3591</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="18.75" customHeight="1">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 97177-0712</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="18.75" customHeight="1">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 97188-2214</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="18.75" customHeight="1">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 97210-6165</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="18.75" customHeight="1">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 97419-7725</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="18.75" customHeight="1">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 97583-2098</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="18.75" customHeight="1">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 97714-2096</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="18.75" customHeight="1">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 97717-8598</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="18.75" customHeight="1">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 98064-0466</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="18.75" customHeight="1">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 98392-4211</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="18.75" customHeight="1">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 98531-5846</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="18.75" customHeight="1">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 98664-1569</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="18.75" customHeight="1">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 98963-3264</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="18.75" customHeight="1">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 98976-2896</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="18.75" customHeight="1">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 99165-6302</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="18.75" customHeight="1">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 99696-9492</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="18.75" customHeight="1">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 99734-7180</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="18.75" customHeight="1">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>+55 12 99105-1232</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="18.75" customHeight="1">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>+55 12 99111-2912</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="18.75" customHeight="1">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>+55 13 98166-6132</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="18.75" customHeight="1">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>+55 13 98873-5738</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="18.75" customHeight="1">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>+55 13 99800-6385</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="18.75" customHeight="1">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>+55 14 98230-7825</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="18.75" customHeight="1">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>+55 14 98802-2029</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="18.75" customHeight="1">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>+55 14 99643-2732</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="18.75" customHeight="1">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>+55 14 99689-0999</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="18.75" customHeight="1">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>+55 14 99718-3636</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="18.75" customHeight="1">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>+55 14 99770-9416</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="18.75" customHeight="1">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>+55 14 99771-0460</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="18.75" customHeight="1">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>+55 14 99900-7450</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="18.75" customHeight="1">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>+55 16 98251-2205</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="18.75" customHeight="1">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>+55 16 99142-0122</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="18.75" customHeight="1">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>+55 16 99707-2269</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="18.75" customHeight="1">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>+55 16 99750-5196</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="18.75" customHeight="1">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>+55 16 99985-0619</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="18.75" customHeight="1">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>+55 17 99747-3991</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="18.75" customHeight="1">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>+55 18 98103-1859</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="18.75" customHeight="1">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>+55 18 98124-8266</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="18.75" customHeight="1">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>+55 19 99138-5731</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="18.75" customHeight="1">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>+55 19 99260-1961</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="18.75" customHeight="1">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>+55 19 99754-9199</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="18.75" customHeight="1">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>+55 19 99846-9294</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="18.75" customHeight="1">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>+55 19 99858-1503</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="18.75" customHeight="1">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>+55 19 99983-7100</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="18.75" customHeight="1">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>+55 21 96443-2218</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="18.75" customHeight="1">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>+55 21 96700-4746</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="18.75" customHeight="1">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>+55 21 96982-3263</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="18.75" customHeight="1">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>+55 21 97018-2315</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" ht="18.75" customHeight="1">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>+55 21 97241-7865</t>
+        </is>
+      </c>
+    </row>
+    <row r="79" ht="18.75" customHeight="1">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>+55 21 97320-2741</t>
+        </is>
+      </c>
+    </row>
+    <row r="80" ht="18.75" customHeight="1">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>+55 21 97486-5781</t>
+        </is>
+      </c>
+    </row>
+    <row r="81" ht="18.75" customHeight="1">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>+55 21 97568-4139</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" ht="18.75" customHeight="1">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>+55 21 97573-1735</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" ht="18.75" customHeight="1">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>+55 21 97725-6298</t>
+        </is>
+      </c>
+    </row>
+    <row r="84" ht="18.75" customHeight="1">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>+55 21 98012-3620</t>
+        </is>
+      </c>
+    </row>
+    <row r="85" ht="18.75" customHeight="1">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>+55 21 98202-9247</t>
+        </is>
+      </c>
+    </row>
+    <row r="86" ht="18.75" customHeight="1">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>+55 21 98225-0672</t>
+        </is>
+      </c>
+    </row>
+    <row r="87" ht="18.75" customHeight="1">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>+55 21 98266-9929</t>
+        </is>
+      </c>
+    </row>
+    <row r="88" ht="18.75" customHeight="1">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>+55 21 98760-9619</t>
+        </is>
+      </c>
+    </row>
+    <row r="89" ht="18.75" customHeight="1">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>+55 21 99319-4345</t>
+        </is>
+      </c>
+    </row>
+    <row r="90" ht="18.75" customHeight="1">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>+55 21 99433-4302</t>
+        </is>
+      </c>
+    </row>
+    <row r="91" ht="18.75" customHeight="1">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>+55 21 99560-7502</t>
+        </is>
+      </c>
+    </row>
+    <row r="92" ht="18.75" customHeight="1">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>+55 21 99974-9851</t>
+        </is>
+      </c>
+    </row>
+    <row r="93" ht="18.75" customHeight="1">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>+55 22 99217-0831</t>
+        </is>
+      </c>
+    </row>
+    <row r="94" ht="18.75" customHeight="1">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>+55 22 99823-3413</t>
+        </is>
+      </c>
+    </row>
+    <row r="95" ht="18.75" customHeight="1">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>+55 22 99886-8918</t>
+        </is>
+      </c>
+    </row>
+    <row r="96" ht="18.75" customHeight="1">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>+55 24 99228-8787</t>
+        </is>
+      </c>
+    </row>
+    <row r="97" ht="18.75" customHeight="1">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>+55 24 99946-3115</t>
+        </is>
+      </c>
+    </row>
+    <row r="98" ht="18.75" customHeight="1">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>+55 27 99602-4041</t>
+        </is>
+      </c>
+    </row>
+    <row r="99" ht="18.75" customHeight="1">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>+55 28 98808-1486</t>
+        </is>
+      </c>
+    </row>
+    <row r="100" ht="18.75" customHeight="1">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>+55 28 99994-4622</t>
+        </is>
+      </c>
+    </row>
+    <row r="101" ht="18.75" customHeight="1">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>+55 31 7145-6747</t>
+        </is>
+      </c>
+    </row>
+    <row r="102" ht="18.75" customHeight="1">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>+55 31 8224-6835</t>
+        </is>
+      </c>
+    </row>
+    <row r="103" ht="18.75" customHeight="1">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>+55 31 8574-8946</t>
+        </is>
+      </c>
+    </row>
+    <row r="104" ht="18.75" customHeight="1">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>+55 31 9172-7250</t>
+        </is>
+      </c>
+    </row>
+    <row r="105" ht="18.75" customHeight="1">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>+55 32 8899-4657</t>
+        </is>
+      </c>
+    </row>
+    <row r="106" ht="18.75" customHeight="1">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>+55 34 9893-9026</t>
+        </is>
+      </c>
+    </row>
+    <row r="107" ht="18.75" customHeight="1">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>+55 35 8474-7260</t>
+        </is>
+      </c>
+    </row>
+    <row r="108" ht="18.75" customHeight="1">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>+55 35 8815-3650</t>
+        </is>
+      </c>
+    </row>
+    <row r="109" ht="18.75" customHeight="1">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>+55 35 9712-0770</t>
+        </is>
+      </c>
+    </row>
+    <row r="110" ht="18.75" customHeight="1">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>+55 37 9663-8516</t>
+        </is>
+      </c>
+    </row>
+    <row r="111" ht="18.75" customHeight="1">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>+55 41 9179-9934</t>
+        </is>
+      </c>
+    </row>
+    <row r="112" ht="18.75" customHeight="1">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>+55 41 9729-3371</t>
+        </is>
+      </c>
+    </row>
+    <row r="113" ht="18.75" customHeight="1">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>+55 41 9920-9691</t>
+        </is>
+      </c>
+    </row>
+    <row r="114" ht="18.75" customHeight="1">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>+55 45 9987-1163</t>
+        </is>
+      </c>
+    </row>
+    <row r="115" ht="18.75" customHeight="1">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>+55 47 9200-0507</t>
+        </is>
+      </c>
+    </row>
+    <row r="116" ht="18.75" customHeight="1">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>+55 47 9670-9850</t>
+        </is>
+      </c>
+    </row>
+    <row r="117" ht="18.75" customHeight="1">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>+55 47 9680-7918</t>
+        </is>
+      </c>
+    </row>
+    <row r="118" ht="18.75" customHeight="1">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>+55 48 8860-2042</t>
+        </is>
+      </c>
+    </row>
+    <row r="119" ht="18.75" customHeight="1">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>+55 48 9622-5036</t>
+        </is>
+      </c>
+    </row>
+    <row r="120" ht="18.75" customHeight="1">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>+55 48 9651-5216</t>
+        </is>
+      </c>
+    </row>
+    <row r="121" ht="18.75" customHeight="1">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>+55 48 9900-7338</t>
+        </is>
+      </c>
+    </row>
+    <row r="122" ht="18.75" customHeight="1">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>+55 49 3226-3957</t>
+        </is>
+      </c>
+    </row>
+    <row r="123" ht="18.75" customHeight="1">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>+55 51 8143-5402</t>
+        </is>
+      </c>
+    </row>
+    <row r="124" ht="18.75" customHeight="1">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>+55 51 8465-2428</t>
+        </is>
+      </c>
+    </row>
+    <row r="125" ht="18.75" customHeight="1">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>+55 51 8474-8383</t>
+        </is>
+      </c>
+    </row>
+    <row r="126" ht="18.75" customHeight="1">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>+55 51 9152-1680</t>
+        </is>
+      </c>
+    </row>
+    <row r="127" ht="18.75" customHeight="1">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>+55 51 9380-2869</t>
+        </is>
+      </c>
+    </row>
+    <row r="128" ht="18.75" customHeight="1">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>+55 51 9565-0932</t>
+        </is>
+      </c>
+    </row>
+    <row r="129" ht="18.75" customHeight="1">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>+55 51 9847-3159</t>
+        </is>
+      </c>
+    </row>
+    <row r="130" ht="18.75" customHeight="1">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>+55 54 9994-0218</t>
+        </is>
+      </c>
+    </row>
+    <row r="131" ht="18.75" customHeight="1">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>+55 55 9912-5740</t>
+        </is>
+      </c>
+    </row>
+    <row r="132" ht="18.75" customHeight="1">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>+55 55 9998-4726</t>
+        </is>
+      </c>
+    </row>
+    <row r="133" ht="18.75" customHeight="1">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>+55 61 8124-8241</t>
+        </is>
+      </c>
+    </row>
+    <row r="134" ht="18.75" customHeight="1">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>+55 61 8219-4004</t>
+        </is>
+      </c>
+    </row>
+    <row r="135" ht="18.75" customHeight="1">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>+55 61 9187-8558</t>
+        </is>
+      </c>
+    </row>
+    <row r="136" ht="18.75" customHeight="1">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>+55 61 9587-9915</t>
+        </is>
+      </c>
+    </row>
+    <row r="137" ht="18.75" customHeight="1">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>+55 61 9997-1373</t>
+        </is>
+      </c>
+    </row>
+    <row r="138" ht="18.75" customHeight="1">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>+55 62 8181-2210</t>
+        </is>
+      </c>
+    </row>
+    <row r="139" ht="18.75" customHeight="1">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>+55 62 8196-7717</t>
+        </is>
+      </c>
+    </row>
+    <row r="140" ht="18.75" customHeight="1">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>+55 62 9602-5627</t>
+        </is>
+      </c>
+    </row>
+    <row r="141" ht="18.75" customHeight="1">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>+55 64 9944-6063</t>
+        </is>
+      </c>
+    </row>
+    <row r="142" ht="18.75" customHeight="1">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>+55 65 9906-0820</t>
+        </is>
+      </c>
+    </row>
+    <row r="143" ht="18.75" customHeight="1">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>+55 66 8128-7152</t>
+        </is>
+      </c>
+    </row>
+    <row r="144" ht="18.75" customHeight="1">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>+55 66 9220-5810</t>
+        </is>
+      </c>
+    </row>
+    <row r="145" ht="18.75" customHeight="1">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>+55 66 9997-4615</t>
+        </is>
+      </c>
+    </row>
+    <row r="146" ht="18.75" customHeight="1">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>+55 66 9999-9078</t>
+        </is>
+      </c>
+    </row>
+    <row r="147" ht="18.75" customHeight="1">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>+55 67 8156-5688</t>
+        </is>
+      </c>
+    </row>
+    <row r="148" ht="18.75" customHeight="1">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>+55 67 9213-4520</t>
+        </is>
+      </c>
+    </row>
+    <row r="149" ht="18.75" customHeight="1">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>+55 67 9953-9644</t>
+        </is>
+      </c>
+    </row>
+    <row r="150" ht="18.75" customHeight="1">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>+55 67 9999-9436</t>
+        </is>
+      </c>
+    </row>
+    <row r="151" ht="18.75" customHeight="1">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>+55 68 9981-6723</t>
+        </is>
+      </c>
+    </row>
+    <row r="152" ht="18.75" customHeight="1">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>+55 71 8422-2349</t>
+        </is>
+      </c>
+    </row>
+    <row r="153" ht="18.75" customHeight="1">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>+55 79 9135-3946</t>
+        </is>
+      </c>
+    </row>
+    <row r="154" ht="18.75" customHeight="1">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>+55 81 8300-6192</t>
+        </is>
+      </c>
+    </row>
+    <row r="155" ht="18.75" customHeight="1">
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>+55 81 8542-8619</t>
+        </is>
+      </c>
+    </row>
+    <row r="156" ht="18.75" customHeight="1">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>+55 83 8612-4704</t>
+        </is>
+      </c>
+    </row>
+    <row r="157" ht="18.75" customHeight="1">
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>+55 83 8680-1256</t>
+        </is>
+      </c>
+    </row>
+    <row r="158" ht="18.75" customHeight="1">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>+55 83 8853-8410</t>
+        </is>
+      </c>
+    </row>
+    <row r="159" ht="18.75" customHeight="1">
+      <c r="A159" s="2" t="inlineStr">
+        <is>
+          <t>+55 84 8177-5155</t>
+        </is>
+      </c>
+    </row>
+    <row r="160" ht="18.75" customHeight="1">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>+55 84 9673-8419</t>
+        </is>
+      </c>
+    </row>
+    <row r="161" ht="18.75" customHeight="1">
+      <c r="A161" s="2" t="inlineStr">
+        <is>
+          <t>+55 85 8596-1359</t>
+        </is>
+      </c>
+    </row>
+    <row r="162" ht="18.75" customHeight="1">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>+55 85 8596-1811</t>
+        </is>
+      </c>
+    </row>
+    <row r="163" ht="18.75" customHeight="1">
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>+55 85 9162-0291</t>
+        </is>
+      </c>
+    </row>
+    <row r="164" ht="18.75" customHeight="1">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>+55 91 8911-2724</t>
+        </is>
+      </c>
+    </row>
+    <row r="165" ht="18.75" customHeight="1">
+      <c r="A165" s="2" t="inlineStr">
+        <is>
+          <t>+55 92 9454-3501</t>
+        </is>
+      </c>
+    </row>
+    <row r="166" ht="18.75" customHeight="1">
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>+55 98 9112-1975</t>
+        </is>
+      </c>
+    </row>
+    <row r="167" ht="18.75" customHeight="1">
+      <c r="A167" s="2" t="inlineStr">
+        <is>
+          <t>+55 91 9227-8038</t>
+        </is>
+      </c>
+    </row>
+    <row r="168" ht="18.75" customHeight="1">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>+55 15 99856-5444</t>
+        </is>
+      </c>
+    </row>
+    <row r="169" ht="18.75" customHeight="1">
+      <c r="A169" s="2" t="inlineStr">
+        <is>
+          <t>+55 71 8186-4028</t>
+        </is>
+      </c>
+    </row>
+    <row r="170" ht="18.75" customHeight="1">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>+55 35 9136-7956</t>
+        </is>
+      </c>
+    </row>
+    <row r="171" ht="18.75" customHeight="1">
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>+55 92 9528-7002</t>
+        </is>
+      </c>
+    </row>
+    <row r="172" ht="18.75" customHeight="1">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>+55 15 99822-1645</t>
+        </is>
+      </c>
+    </row>
+    <row r="173" ht="18.75" customHeight="1">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>+55 33 9113-4442</t>
+        </is>
+      </c>
+    </row>
+    <row r="174" ht="18.75" customHeight="1">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 98638-8616</t>
+        </is>
+      </c>
+    </row>
+    <row r="175" ht="18.75" customHeight="1">
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <t>+55 34 9819-8066</t>
+        </is>
+      </c>
+    </row>
+    <row r="176" ht="18.75" customHeight="1">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>+55 54 9158-8447</t>
+        </is>
+      </c>
+    </row>
+    <row r="177" ht="18.75" customHeight="1">
+      <c r="A177" s="2" t="inlineStr">
+        <is>
+          <t>+55 85 8959-3580</t>
+        </is>
+      </c>
+    </row>
+    <row r="178" ht="18.75" customHeight="1">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>+55 85 8152-8544</t>
+        </is>
+      </c>
+    </row>
+    <row r="179" ht="18.75" customHeight="1">
+      <c r="A179" s="2" t="inlineStr">
+        <is>
+          <t>+55 65 9646-7765</t>
+        </is>
+      </c>
+    </row>
+    <row r="180" ht="18.75" customHeight="1">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>+55 41 9757-4699</t>
+        </is>
+      </c>
+    </row>
+    <row r="181" ht="18.75" customHeight="1">
+      <c r="A181" s="2" t="inlineStr">
+        <is>
+          <t>+55 21 99210-3764</t>
+        </is>
+      </c>
+    </row>
+    <row r="182" ht="18.75" customHeight="1">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>+55 31 9153-7979</t>
+        </is>
+      </c>
+    </row>
+    <row r="183" ht="18.75" customHeight="1">
+      <c r="A183" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 95124-7670</t>
+        </is>
+      </c>
+    </row>
+    <row r="184" ht="18.75" customHeight="1">
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>+55 86 8899-6334</t>
+        </is>
+      </c>
+    </row>
+    <row r="185" ht="18.75" customHeight="1">
+      <c r="A185" s="2" t="inlineStr">
+        <is>
+          <t>+55 12 98123-5501</t>
+        </is>
+      </c>
+    </row>
+    <row r="186" ht="18.75" customHeight="1">
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>+55 11 98803-9596</t>
+        </is>
+      </c>
+    </row>
+    <row r="187" ht="18.75" customHeight="1">
+      <c r="A187" s="2" t="inlineStr">
+        <is>
+          <t>+55 62 9382-7283</t>
+        </is>
+      </c>
+    </row>
+    <row r="188" ht="18.75" customHeight="1">
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>+55 12 99184-6607</t>
+        </is>
+      </c>
+    </row>
+    <row r="189" ht="18.75" customHeight="1">
+      <c r="A189" s="2" t="inlineStr">
+        <is>
+          <t>+1 (825) 785-4560</t>
+        </is>
+      </c>
+    </row>
+    <row r="190" ht="18.75" customHeight="1">
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>+55 13 98153-1530</t>
+        </is>
+      </c>
+    </row>
+    <row r="191" ht="18.75" customHeight="1">
+      <c r="A191" s="2" t="inlineStr">
+        <is>
+          <t>+55 18 99630-7422</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>+55 44 9728-8401</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>+55 11 98572-5312</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>+55 35 9752-4280</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>+55 11 93149-8052</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>+55 41 9534-8154</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>+55 35 9977-3607</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>+55 11 98775-3560</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>+55 92 8424-5511</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>+55 73 9916-1219</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>+55 92 9386-3868</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>+55 98 7009-7564</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>+55 21 98207-2592</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>+55 35 9747-4027</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>+55 15 99133-3621</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>+55 77 9901-8159</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>+55 67 9603-9369</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>+55 53 8409-2676</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>+55 13 99724-7319</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>+55 51 8986-8320</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>+55 11 97766-1381</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>+55 48 8438-0909</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>+55 51 9130-4011</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>+55 47 9910-4022</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>+55 21 98088-6732</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>+55 41 9776-0662</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>+55 41 9564-5897</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>+55 35 9969-3127</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>+1 (407) 350-1087</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>+55 92 8805-4660</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>+55 38 9259-0948</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>+1 (540) 935-4646</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>+55 11 96511-0843</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>+55 66 9669-3115</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>+55 51 9240-6993</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>+55 79 9866-8875</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>+55 47 9680-0618</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>+55 41 9855-7377</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>+55 51 9317-6575</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>+55 19 99605-3461</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>+55 34 9720-1011</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>+55 21 96466-1899</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>+55 35 9864-5727</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>+55 19 98131-2129</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>+55 54 9371-1755</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>+55 12 98174-7672</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>+55 51 9293-2697</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>+55 38 9835-7019</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>+55 11 94140-5224</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>+55 95 9161-9901</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>+55 62 9549-0611</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>+55 34 9908-8539</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>+55 19 99881-1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>+1 (774) 540-0805</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>+39 389 945 0917</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>+55 11 91036-9022</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>+55 11 91115-7120</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>+55 11 91346-6271</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>+55 11 91481-4400</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>+55 11 91482-3821</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>+55 11 91626-4700</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>+55 11 93201-5693</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>+55 11 93221-3068</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>+55 11 93412-5591</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>+55 11 93505-1070</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>+55 11 93902-3469</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>+55 11 94075-9783</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>+55 11 94165-7036</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>+55 11 94205-3328</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>+55 11 94224-0103</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>+55 11 94341-8083</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>+55 11 94524-9548</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>+55 11 94554-9598</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>+55 11 94577-8144</t>
+        </is>
       </c>
     </row>
   </sheetData>
